--- a/vivo/data/tg478/preprocess/tg478_raw.xlsx
+++ b/vivo/data/tg478/preprocess/tg478_raw.xlsx
@@ -3072,12 +3072,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>male/female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>other: Dominant lethals were not reported</t>
+          <t>ambiguous</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3170,12 +3170,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>male/female</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ambiguous</t>
+          <t>other: Dominant lethals were not reported</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -12821,12 +12821,12 @@
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr">
         <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
           <t>not applicable</t>
-        </is>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>valid</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -12866,12 +12866,12 @@
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -15342,12 +15342,12 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
           <t>not applicable</t>
-        </is>
-      </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>valid</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -15391,12 +15391,12 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -15697,12 +15697,12 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -15746,12 +15746,12 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
           <t>not applicable</t>
-        </is>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>valid</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -18041,7 +18041,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>no effects</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -18059,7 +18059,11 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>Mortality among high dose males (100 ppm), five died after first exposure day, two more after the second exposure and another males was terminated following moribundity afterthe third exposure.</t>
+        </is>
+      </c>
       <c r="K373" t="inlineStr"/>
     </row>
     <row r="374">
@@ -18090,7 +18094,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no effects</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -18108,11 +18112,7 @@
           <t>not applicable</t>
         </is>
       </c>
-      <c r="J374" t="inlineStr">
-        <is>
-          <t>Mortality among high dose males (100 ppm), five died after first exposure day, two more after the second exposure and another males was terminated following moribundity afterthe third exposure.</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
     </row>
     <row r="375">
@@ -20285,35 +20285,23 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>no effects</t>
-        </is>
-      </c>
-      <c r="G422" t="inlineStr">
-        <is>
-          <t>not applicable</t>
-        </is>
-      </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="I422" t="inlineStr">
-        <is>
-          <t>valid</t>
-        </is>
-      </c>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>other: No deviations from negative control values.</t>
-        </is>
-      </c>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>significant reduction in the of post implantation losses (15% only week 2).</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -20338,23 +20326,35 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G423" t="inlineStr"/>
-      <c r="H423" t="inlineStr"/>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr">
-        <is>
-          <t>significant reduction in the of post implantation losses (15% only week 2).</t>
-        </is>
-      </c>
-      <c r="K423" t="inlineStr"/>
+          <t>no effects</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>not applicable</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>other: No deviations from negative control values.</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -21632,32 +21632,44 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Potassium sodium 3,3'-(3(or4)-methyl-1,2-phenylenebis(imino(6-chloro)-1,3,5-triazine-4,2-diylimino(2-acetamido-5-methoxy)-4,1-phenylenazo)dinaphthalene-1,5-disulfonate</t>
+          <t>Hydrocarbons, C5-C7, n-alkanes, isoalkanes, n-hexane rich</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>140876-13-7</t>
+          <t>1174918-63-8</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>male/female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>not specified</t>
-        </is>
-      </c>
-      <c r="G452" t="inlineStr"/>
-      <c r="H452" t="inlineStr"/>
-      <c r="I452" t="inlineStr"/>
+          <t>no effects</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="I452" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
     </row>
